--- a/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 4,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 3,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 6,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 34,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,38; 28,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,18; 18,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 39,96</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,0%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; -0,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 0,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; -0,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; -2,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,89; -9,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,38; 22,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,44; -4,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,16; -32,21</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,79%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 1,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; -0,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; -1,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,56; 113,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,96; 57,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,12; 6,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,8; -33,27</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,08%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 0,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; -0,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,07; 29,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 35,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,55; 10,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,69; -4,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 6,14</t>
+          <t>-0,85; 6,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 39,96</t>
+          <t>-4,58; 40,2</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-46,0%</t>
+          <t>-43,8%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -2,14</t>
+          <t>-4,41; -0,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,16; -32,21</t>
+          <t>-59,67; -21,53</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-57,79%</t>
+          <t>-58,19%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; -1,58</t>
+          <t>-5,4; -1,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,8; -33,27</t>
+          <t>-73,7; -32,66</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-14,97%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; -0,33</t>
+          <t>-2,72; 0,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,69; -4,16</t>
+          <t>-30,9; 7,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,65</t>
+          <t>-1,66; 3,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,31</t>
+          <t>-2,08; 4,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,14</t>
+          <t>-4,14; 3,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,17</t>
+          <t>-0,58; 6,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 34,77</t>
+          <t>-12,41; 37,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 28,36</t>
+          <t>-11,31; 28,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 18,94</t>
+          <t>-19,69; 21,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 40,2</t>
+          <t>-3,18; 39,84</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,28</t>
+          <t>-2,44; -0,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,62</t>
+          <t>-1,81; 0,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,99; -0,24</t>
+          <t>-3,03; -0,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,41; -0,84</t>
+          <t>-4,45; -0,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,89; -9,05</t>
+          <t>-65,15; -10,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 22,62</t>
+          <t>-43,04; 22,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,44; -4,92</t>
+          <t>-47,56; -3,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,67; -21,53</t>
+          <t>-60,0; -17,72</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,08</t>
+          <t>-1,96; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,56</t>
+          <t>-3,46; 0,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; -0,08</t>
+          <t>-3,98; 0,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -1,56</t>
+          <t>-5,38; -1,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,56; 113,26</t>
+          <t>-76,87; 116,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,96; 57,69</t>
+          <t>-85,73; 45,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-79,12; 6,55</t>
+          <t>-78,29; 11,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,7; -32,66</t>
+          <t>-73,54; -35,6</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,48</t>
+          <t>-0,61; 1,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,4</t>
+          <t>-0,17; 2,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,8</t>
+          <t>-1,85; 0,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 0,6</t>
+          <t>-2,72; 0,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 29,31</t>
+          <t>-10,23; 31,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 35,2</t>
+          <t>-1,95; 38,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 10,24</t>
+          <t>-20,37; 11,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 7,78</t>
+          <t>-30,54; 8,53</t>
         </is>
       </c>
     </row>
